--- a/sict/contest/jangjunyoung/QNet.xlsx
+++ b/sict/contest/jangjunyoung/QNet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\contest\jangjunyoung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60231093-2523-407C-841D-4CC080E8242E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EBB825-1594-47F9-B685-E389BEC1CE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="70">
   <si>
     <t>필기원서접수(인터넷)(휴일제외)</t>
   </si>
@@ -256,12 +256,89 @@
   <si>
     <t>2023.12.15</t>
   </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -271,6 +348,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -295,8 +379,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -602,7 +687,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,32 +701,35 @@
     <col min="8" max="8" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
